--- a/blanded_learning/src/assets/DataCSV/Profs.xlsx
+++ b/blanded_learning/src/assets/DataCSV/Profs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CF0A23-E25D-4ECC-9FA2-4D856E926392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4DAEEA-4CD6-4B0B-878F-B9A38EF9B642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ENSEIGNANTS" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,6 +27,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
   <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>civilite</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>cne</t>
+  </si>
+  <si>
+    <t>555-111-2222</t>
+  </si>
+  <si>
+    <t>specialite</t>
+  </si>
+  <si>
+    <t>prof1</t>
+  </si>
+  <si>
     <t>Monsieur</t>
   </si>
   <si>
@@ -39,6 +72,9 @@
     <t>Specialty1</t>
   </si>
   <si>
+    <t>prof2</t>
+  </si>
+  <si>
     <t>CNE2</t>
   </si>
   <si>
@@ -48,6 +84,9 @@
     <t>Specialty2</t>
   </si>
   <si>
+    <t>prof3</t>
+  </si>
+  <si>
     <t>CNE3</t>
   </si>
   <si>
@@ -57,42 +96,6 @@
     <t>Specialty3</t>
   </si>
   <si>
-    <t>prenom</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>civilite</t>
-  </si>
-  <si>
-    <t>cne</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>specialite</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>prof1</t>
-  </si>
-  <si>
-    <t>prof2</t>
-  </si>
-  <si>
-    <t>prof3</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
   </si>
   <si>
     <t>Specialty10</t>
-  </si>
-  <si>
-    <t>555-111-2222</t>
   </si>
   <si>
     <t>lily</t>
@@ -555,7 +555,317 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -569,18 +879,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TeachersTable" displayName="TeachersTable" ref="C3:K26" totalsRowShown="0">
-  <autoFilter ref="C3:K26" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2A7FF15-2092-4625-A7C2-06C84BB19DD8}" name="Tableau1" displayName="Tableau1" ref="D4:L27" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="D4:L27" xr:uid="{A2A7FF15-2092-4625-A7C2-06C84BB19DD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="prenom"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nom"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="civilite"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="cne"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="specialite"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="tel"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="login"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="password"/>
+    <tableColumn id="1" xr3:uid="{5B29F4C8-A09B-49D5-8C37-1566839FB83A}" name="prenom" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4607FBFC-085E-453B-88DE-7CD0F9B167CF}" name="nom" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{A2DC9430-161C-4B15-8934-3711116664FE}" name="civilite" dataDxfId="6" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="4" xr3:uid="{541B7EB8-5605-456E-B245-647EB4A4BDEC}" name="cne" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{6C1E27A1-10E3-484A-9A4F-564B3BBBE19C}" name="email" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1F1AA4AD-469F-4639-8506-A1889388492E}" name="specialite" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{2C7DA826-FCBA-4211-8624-BD2ACA6AD747}" name="tel" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FBB8603D-2FA8-425B-BB81-8C46599CAE6E}" name="login" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{025E2F11-578B-49D7-9E4A-46FACB264315}" name="password" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,7 +913,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -615,7 +925,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -662,6 +972,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -697,6 +1024,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,746 +1194,744 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:K26"/>
+  <dimension ref="D4:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J5">
+        <v>123456789</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
+      <c r="J6">
+        <v>123456789</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
         <v>123456789</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>123456789</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>123456789</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K14" t="s">
         <v>70</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I15" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J15" t="s">
         <v>76</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K15" t="s">
         <v>77</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H16" t="s">
         <v>81</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I16" t="s">
         <v>82</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J16" t="s">
         <v>83</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H17" t="s">
         <v>88</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I17" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J17" t="s">
         <v>90</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K17" t="s">
         <v>91</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
         <v>93</v>
       </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
         <v>94</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H18" t="s">
         <v>95</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I18" t="s">
         <v>96</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J18" t="s">
         <v>97</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
         <v>101</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H19" t="s">
         <v>102</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K19" t="s">
         <v>105</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>106</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>107</v>
       </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
         <v>108</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H20" t="s">
         <v>109</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I20" t="s">
         <v>110</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J20" t="s">
         <v>111</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K20" t="s">
         <v>112</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
         <v>113</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>114</v>
       </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
         <v>115</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H21" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I21" t="s">
         <v>117</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J21" t="s">
         <v>118</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K21" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
         <v>120</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>121</v>
       </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
         <v>122</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H22" t="s">
         <v>123</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I22" t="s">
         <v>124</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J22" t="s">
         <v>125</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K22" t="s">
         <v>126</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
         <v>129</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H23" t="s">
         <v>130</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I23" t="s">
         <v>131</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J23" t="s">
         <v>132</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K23" t="s">
         <v>133</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
         <v>106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E24" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
         <v>135</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H24" t="s">
         <v>136</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I24" t="s">
         <v>137</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J24" t="s">
         <v>138</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K24" t="s">
         <v>139</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L24" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
         <v>140</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E25" t="s">
         <v>141</v>
       </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
         <v>142</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H25" t="s">
         <v>143</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I25" t="s">
         <v>144</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J25" t="s">
         <v>145</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K25" t="s">
         <v>146</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
         <v>147</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E26" t="s">
         <v>148</v>
       </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
         <v>149</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H26" t="s">
         <v>150</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I26" t="s">
         <v>151</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J26" t="s">
         <v>152</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K26" t="s">
         <v>153</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
         <v>154</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E27" t="s">
         <v>155</v>
       </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
         <v>156</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H27" t="s">
         <v>157</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I27" t="s">
         <v>158</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J27" t="s">
         <v>159</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K27" t="s">
         <v>160</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L27" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" display="mailto:smith@example.com" xr:uid="{8150AFCC-5365-4FA4-B7C0-8B9B37E1A214}"/>
-    <hyperlink ref="G8" r:id="rId2" display="mailto:anna@example.com" xr:uid="{3D21FED1-BDA6-4773-BA1D-87AA6792A1B0}"/>
-    <hyperlink ref="G9" r:id="rId3" display="mailto:emily@example.com" xr:uid="{58FC9A17-37BB-48F0-B592-0379850E7322}"/>
-    <hyperlink ref="G10" r:id="rId4" display="mailto:alex@example.com" xr:uid="{46A5B95C-1C1C-4B49-9452-97CC2DAA605F}"/>
-    <hyperlink ref="G11" r:id="rId5" display="mailto:emma@example.com" xr:uid="{5FA0F0A9-7858-4D3A-A288-F956D763D8FB}"/>
-    <hyperlink ref="G12" r:id="rId6" display="mailto:liam@example.com" xr:uid="{E1EBCCC7-0C1E-4DF1-A4CA-E710400DFC2D}"/>
-    <hyperlink ref="G13" r:id="rId7" display="mailto:lily@example.com" xr:uid="{61FBF09B-DAD0-4477-9842-E72E07BA7DE8}"/>
-    <hyperlink ref="G14" r:id="rId8" display="mailto:noah@example.com" xr:uid="{56437BE6-D296-4973-8C69-DE58430F89DB}"/>
-    <hyperlink ref="G15" r:id="rId9" display="mailto:ava@example.com" xr:uid="{71B90F1E-D956-4527-A78C-D69C53096810}"/>
-    <hyperlink ref="G16" r:id="rId10" display="mailto:mia@example.com" xr:uid="{AFE0CDF9-FFE1-44F2-8226-5FB16587FE11}"/>
-    <hyperlink ref="G17" r:id="rId11" display="mailto:olivia@example.com" xr:uid="{E1DCD6C5-D210-4585-9575-F9D5409AA786}"/>
-    <hyperlink ref="G18" r:id="rId12" display="mailto:william@example.com" xr:uid="{12F04DCD-0432-42BA-93E5-52F9655938AF}"/>
-    <hyperlink ref="G19" r:id="rId13" display="mailto:sophia@example.com" xr:uid="{331B6AA0-8482-4AFC-8560-725EB56711D8}"/>
-    <hyperlink ref="G20" r:id="rId14" display="mailto:ethan@example.com" xr:uid="{CE608880-D017-4E50-A4AF-58D4D5FC2085}"/>
-    <hyperlink ref="G21" r:id="rId15" display="mailto:aiden@example.com" xr:uid="{0496B69D-404F-40A7-8497-E5A25BE163FD}"/>
-    <hyperlink ref="G22" r:id="rId16" display="mailto:charlotte@example.com" xr:uid="{7048A7A2-9321-4C65-9B65-BDE19B0683CD}"/>
-    <hyperlink ref="G23" r:id="rId17" display="mailto:harper@example.com" xr:uid="{D31B500E-7A79-43F9-80FD-81F02D1DE03F}"/>
-    <hyperlink ref="G24" r:id="rId18" display="mailto:benjamin@example.com" xr:uid="{40AB580B-4500-4B9F-AA50-48F3A28A3E2F}"/>
-    <hyperlink ref="G25" r:id="rId19" display="mailto:james@example.com" xr:uid="{C293BFCF-F212-41F6-BDFF-B7A0CF1CB4D6}"/>
-    <hyperlink ref="G26" r:id="rId20" display="mailto:amelia@example.com" xr:uid="{7CD162EF-56C0-4B53-9AB7-A120535212F2}"/>
+    <hyperlink ref="H8" r:id="rId1" display="mailto:smith@example.com" xr:uid="{A64621C7-286B-4187-B235-1CE838B21ED4}"/>
+    <hyperlink ref="H9" r:id="rId2" display="mailto:anna@example.com" xr:uid="{96DA8948-1BAA-44B1-BDDA-C82ABE941392}"/>
+    <hyperlink ref="H10" r:id="rId3" display="mailto:emily@example.com" xr:uid="{DF80102B-5F6E-440C-9310-872C44B7535C}"/>
+    <hyperlink ref="H11" r:id="rId4" display="mailto:alex@example.com" xr:uid="{1001DB95-6EA0-4398-AFA9-A7604499D53A}"/>
+    <hyperlink ref="H12" r:id="rId5" display="mailto:emma@example.com" xr:uid="{8DA38DB7-B863-4B61-A14D-47455A6B53D7}"/>
+    <hyperlink ref="H13" r:id="rId6" display="mailto:liam@example.com" xr:uid="{F3BDA447-869B-4DE8-895C-D971D060696A}"/>
+    <hyperlink ref="H14" r:id="rId7" display="mailto:lily@example.com" xr:uid="{9107B08B-EA00-4F44-B86D-3746906F9526}"/>
+    <hyperlink ref="H15" r:id="rId8" display="mailto:noah@example.com" xr:uid="{48181959-0DB9-4B8C-9A43-0336552CB097}"/>
+    <hyperlink ref="H16" r:id="rId9" display="mailto:ava@example.com" xr:uid="{D466B9F5-25DA-4598-B49A-E51299513E41}"/>
+    <hyperlink ref="H17" r:id="rId10" display="mailto:mia@example.com" xr:uid="{437667D8-4599-4DDA-AF59-6E54F858816D}"/>
+    <hyperlink ref="H18" r:id="rId11" display="mailto:olivia@example.com" xr:uid="{37E6E9EC-8965-4089-A65E-3355B383FFEE}"/>
+    <hyperlink ref="H19" r:id="rId12" display="mailto:william@example.com" xr:uid="{27465C98-BA5B-42A5-AC5C-0DD8FC41AED7}"/>
+    <hyperlink ref="H20" r:id="rId13" display="mailto:sophia@example.com" xr:uid="{C42EC6B6-DBCC-4F7F-A0CC-A6F6E6FEC757}"/>
+    <hyperlink ref="H21" r:id="rId14" display="mailto:ethan@example.com" xr:uid="{1A218A7D-4C37-4B8D-B086-56EF0CEE8786}"/>
+    <hyperlink ref="H22" r:id="rId15" display="mailto:aiden@example.com" xr:uid="{0E3CAB7A-4CF0-4868-96A9-F9CFECCF180C}"/>
+    <hyperlink ref="H23" r:id="rId16" display="mailto:charlotte@example.com" xr:uid="{1AB989D6-9A24-443A-AF5F-032FB6EF4774}"/>
+    <hyperlink ref="H24" r:id="rId17" display="mailto:harper@example.com" xr:uid="{ACA03DFF-7C08-4A4C-9D4C-DAC7431E8A33}"/>
+    <hyperlink ref="H25" r:id="rId18" display="mailto:benjamin@example.com" xr:uid="{B51E5539-2173-436C-83EF-E0CDAFDD8BA2}"/>
+    <hyperlink ref="H26" r:id="rId19" display="mailto:james@example.com" xr:uid="{D214D6A6-DED7-496F-8FCC-624F833371A0}"/>
+    <hyperlink ref="H27" r:id="rId20" display="mailto:amelia@example.com" xr:uid="{62A41FC4-5F29-427E-A5A1-52B7EE26F051}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>